--- a/data/exports/ingredients_dinner_week2.xlsx
+++ b/data/exports/ingredients_dinner_week2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="202">
   <si>
     <t>Ingredient</t>
   </si>
@@ -25,10 +25,10 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Acorn squash, halved</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>acorn squash</t>
   </si>
   <si>
     <t>Dry</t>
@@ -40,7 +40,10 @@
     <t>ea</t>
   </si>
   <si>
-    <t>All-purpose flour</t>
+    <t>Occurrences: 1</t>
+  </si>
+  <si>
+    <t>all-purpose flour</t>
   </si>
   <si>
     <t>Starch</t>
@@ -52,25 +55,31 @@
     <t>lb</t>
   </si>
   <si>
-    <t>Almond cream</t>
+    <t>almond cream</t>
   </si>
   <si>
     <t>Dairy</t>
   </si>
   <si>
-    <t>Almond extract</t>
+    <t>almond extract</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>oz</t>
   </si>
   <si>
-    <t>Almond flour</t>
+    <t>Occurrences: 2</t>
+  </si>
+  <si>
+    <t>almond flour</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Apple cider</t>
+    <t>apple cider</t>
   </si>
   <si>
     <t>Fruit</t>
@@ -82,481 +91,532 @@
     <t>qt</t>
   </si>
   <si>
-    <t>Arborio rice</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Baking powder</t>
+    <t>arborio rice</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>baking powder</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>Bao buns</t>
+    <t>bao bun</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>Beef stock</t>
+    <t>beef stock</t>
   </si>
   <si>
     <t>Protein</t>
   </si>
   <si>
-    <t>Beef tenderloin (6–8 oz portions)</t>
-  </si>
-  <si>
-    <t>Beef tenderloin, portion-cut (6–8 oz)</t>
-  </si>
-  <si>
-    <t>Beets, peeled &amp; diced</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>Bell peppers, julienne</t>
+    <t>Occurrences: 3</t>
+  </si>
+  <si>
+    <t>beef tenderloin</t>
+  </si>
+  <si>
+    <t>beef tenderloin, portion-cut</t>
+  </si>
+  <si>
+    <t>beet</t>
+  </si>
+  <si>
+    <t>bell pepper</t>
   </si>
   <si>
     <t>Vegetable</t>
   </si>
   <si>
-    <t>Black sesame paste</t>
-  </si>
-  <si>
-    <t>Blood orange curd</t>
-  </si>
-  <si>
-    <t>Bone marrow, softened</t>
-  </si>
-  <si>
-    <t>Bourbon</t>
+    <t>black sesame paste</t>
+  </si>
+  <si>
+    <t>blood orange curd</t>
+  </si>
+  <si>
+    <t>bone marrow, softened</t>
+  </si>
+  <si>
+    <t>bourbon</t>
   </si>
   <si>
     <t>Alcohol</t>
   </si>
   <si>
-    <t>Breadcrumbs</t>
-  </si>
-  <si>
-    <t>Broccoli rabe</t>
-  </si>
-  <si>
-    <t>Butter</t>
-  </si>
-  <si>
-    <t>Butter, melted</t>
-  </si>
-  <si>
-    <t>Butter, unsalted</t>
+    <t>bread crumb</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>broccoli rabe</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mixed units: 47 lb, 14 oz</t>
+  </si>
+  <si>
+    <t>butter, melted</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>butter, unsalted</t>
   </si>
   <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>Cajun seasoning</t>
-  </si>
-  <si>
-    <t>Calamari, cleaned &amp; sliced</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Canned tomatoes, crushed</t>
-  </si>
-  <si>
-    <t>Carolina Gold rice</t>
-  </si>
-  <si>
-    <t>Carrots, diced</t>
-  </si>
-  <si>
-    <t>Carrots, julienne</t>
-  </si>
-  <si>
-    <t>Carrots, sliced</t>
-  </si>
-  <si>
-    <t>Cauliflower, cut into florets</t>
-  </si>
-  <si>
-    <t>Celeriac, peeled &amp; diced</t>
-  </si>
-  <si>
-    <t>Celery, diced</t>
-  </si>
-  <si>
-    <t>Cheddar cheese, shredded</t>
-  </si>
-  <si>
-    <t>Cherry tomatoes</t>
-  </si>
-  <si>
-    <t>Chicken or vegetable stock</t>
-  </si>
-  <si>
-    <t>Chicken stock</t>
-  </si>
-  <si>
-    <t>Chicken thighs, bone-in</t>
-  </si>
-  <si>
-    <t>Chives, chopped</t>
-  </si>
-  <si>
-    <t>Chorizo, sliced</t>
-  </si>
-  <si>
-    <t>Coconut milk</t>
-  </si>
-  <si>
-    <t>Cucumber, julienne</t>
-  </si>
-  <si>
-    <t>Dark chocolate</t>
+    <t>cajun seasoning</t>
+  </si>
+  <si>
+    <t>calamari, cleaned &amp; sliced</t>
+  </si>
+  <si>
+    <t>canned tomatoes, crushed</t>
+  </si>
+  <si>
+    <t>carolina gold rice</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Occurrences: 4</t>
+  </si>
+  <si>
+    <t>cauliflower, cut into floret</t>
+  </si>
+  <si>
+    <t>celeriac</t>
+  </si>
+  <si>
+    <t>celery</t>
+  </si>
+  <si>
+    <t>cheddar cheese</t>
+  </si>
+  <si>
+    <t>cherry tomato</t>
+  </si>
+  <si>
+    <t>chicken or vegetable stock</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>chicken stock</t>
+  </si>
+  <si>
+    <t>chicken thighs, bone-in</t>
+  </si>
+  <si>
+    <t>chive</t>
+  </si>
+  <si>
+    <t>chorizo</t>
+  </si>
+  <si>
+    <t>coconut milk</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>dark chocolate</t>
+  </si>
+  <si>
+    <t>dijon mustard</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>Occurrences: 7</t>
+  </si>
+  <si>
+    <t>egg wash</t>
+  </si>
+  <si>
+    <t>eggplant</t>
+  </si>
+  <si>
+    <t>eggs, separated</t>
+  </si>
+  <si>
+    <t>escargot, canned or pre-cooked</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>fresh basil</t>
+  </si>
+  <si>
+    <t>fresh or frozen pea</t>
+  </si>
+  <si>
+    <t>Frozen</t>
+  </si>
+  <si>
+    <t>fresh parsley</t>
+  </si>
+  <si>
+    <t>fresh rosemary</t>
+  </si>
+  <si>
+    <t>Spices</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Occurrences: 16</t>
+  </si>
+  <si>
+    <t>gelatin sheet</t>
+  </si>
+  <si>
+    <t>green onion</t>
+  </si>
+  <si>
+    <t>gruyère cheese</t>
+  </si>
+  <si>
+    <t>haricot vert</t>
+  </si>
+  <si>
+    <t>hazelnuts, toasted &amp; chopped</t>
+  </si>
+  <si>
+    <t>heavy cream</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Occurrences: 8</t>
+  </si>
+  <si>
+    <t>hoisin sauce</t>
+  </si>
+  <si>
+    <t>juniper berries, crushed</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>kale</t>
+  </si>
+  <si>
+    <t>Greens</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Dijon mustard</t>
-  </si>
-  <si>
-    <t>Egg wash</t>
-  </si>
-  <si>
-    <t>Eggplant, sliced lengthwise</t>
-  </si>
-  <si>
-    <t>Eggs</t>
-  </si>
-  <si>
-    <t>Eggs, beaten</t>
-  </si>
-  <si>
-    <t>Eggs, separated</t>
-  </si>
-  <si>
-    <t>Escargot, canned or pre-cooked</t>
-  </si>
-  <si>
-    <t>Can</t>
-  </si>
-  <si>
-    <t>Flour</t>
-  </si>
-  <si>
-    <t>Flour (light dredge)</t>
+    <t>kosher salt</t>
+  </si>
+  <si>
+    <t>Details: to taste</t>
+  </si>
+  <si>
+    <t>kosher salt &amp; pepper</t>
+  </si>
+  <si>
+    <t>lamb shank</t>
+  </si>
+  <si>
+    <t>leek</t>
+  </si>
+  <si>
+    <t>lemon juice</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>lemon wedge</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>lemon zest</t>
+  </si>
+  <si>
+    <t>lobster meat, cooked &amp; chopped</t>
+  </si>
+  <si>
+    <t>maple syrup</t>
+  </si>
+  <si>
+    <t>marinara sauce</t>
+  </si>
+  <si>
+    <t>marsala wine</t>
   </si>
   <si>
     <t>1.5</t>
   </si>
   <si>
-    <t>Fresh basil</t>
-  </si>
-  <si>
-    <t>Fresh or frozen peas</t>
-  </si>
-  <si>
-    <t>Frozen</t>
-  </si>
-  <si>
-    <t>Fresh parsley, chopped</t>
-  </si>
-  <si>
-    <t>Fresh rosemary</t>
-  </si>
-  <si>
-    <t>Spices</t>
-  </si>
-  <si>
-    <t>Garlic, minced</t>
-  </si>
-  <si>
-    <t>Garlic, sliced</t>
-  </si>
-  <si>
-    <t>Gelatin sheets</t>
-  </si>
-  <si>
-    <t>Gruyère cheese, grated</t>
-  </si>
-  <si>
-    <t>Gruyère cheese, shredded</t>
-  </si>
-  <si>
-    <t>Haricots verts</t>
-  </si>
-  <si>
-    <t>Hazelnuts, toasted &amp; chopped</t>
-  </si>
-  <si>
-    <t>Heavy cream</t>
-  </si>
-  <si>
-    <t>Hoisin sauce</t>
-  </si>
-  <si>
-    <t>Juniper berries, crushed</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Kale, chopped</t>
-  </si>
-  <si>
-    <t>Greens</t>
-  </si>
-  <si>
-    <t>Kosher salt</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>to taste</t>
-  </si>
-  <si>
-    <t>Kosher salt &amp; pepper</t>
-  </si>
-  <si>
-    <t>Lamb shanks</t>
-  </si>
-  <si>
-    <t>Leeks, sliced</t>
-  </si>
-  <si>
-    <t>Lemon juice</t>
-  </si>
-  <si>
-    <t>Lemon wedges</t>
-  </si>
-  <si>
-    <t>Lemon zest</t>
-  </si>
-  <si>
-    <t>Lobster meat, cooked &amp; chopped</t>
-  </si>
-  <si>
-    <t>Maple syrup</t>
-  </si>
-  <si>
-    <t>Marinara sauce</t>
-  </si>
-  <si>
-    <t>Marsala wine</t>
-  </si>
-  <si>
-    <t>Mayonnaise (for aioli)</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>Miso paste</t>
-  </si>
-  <si>
-    <t>Mixed mushrooms, sliced</t>
-  </si>
-  <si>
-    <t>Monkfish fillets (6 oz)</t>
-  </si>
-  <si>
-    <t>Mushrooms, diced</t>
-  </si>
-  <si>
-    <t>Mushrooms, finely chopped</t>
-  </si>
-  <si>
-    <t>Mushrooms, large</t>
-  </si>
-  <si>
-    <t>Mushrooms, sliced</t>
-  </si>
-  <si>
-    <t>Nutmeg</t>
-  </si>
-  <si>
-    <t>Okra</t>
-  </si>
-  <si>
-    <t>Olive oil</t>
-  </si>
-  <si>
-    <t>Onion, diced</t>
-  </si>
-  <si>
-    <t>Onion, sliced</t>
-  </si>
-  <si>
-    <t>Orzo pasta</t>
-  </si>
-  <si>
-    <t>Oxtail pieces</t>
-  </si>
-  <si>
-    <t>Paprika</t>
-  </si>
-  <si>
-    <t>Parmesan cheese, grated</t>
-  </si>
-  <si>
-    <t>Parmesan, grated</t>
-  </si>
-  <si>
-    <t>Parsley, chopped</t>
-  </si>
-  <si>
-    <t>Parsnips, peeled &amp; cut into sticks</t>
-  </si>
-  <si>
-    <t>Pearl onions, peeled</t>
-  </si>
-  <si>
-    <t>Pears, sliced</t>
-  </si>
-  <si>
-    <t>Pie dough</t>
-  </si>
-  <si>
-    <t>Polenta</t>
-  </si>
-  <si>
-    <t>Polenta, cooked &amp; chilled</t>
-  </si>
-  <si>
-    <t>Pork belly, cooked &amp; sliced</t>
-  </si>
-  <si>
-    <t>Puff pastry sheets</t>
-  </si>
-  <si>
-    <t>Red bell pepper, sliced</t>
-  </si>
-  <si>
-    <t>Red pepper flakes</t>
-  </si>
-  <si>
-    <t>Red snapper fillets (6 oz)</t>
-  </si>
-  <si>
-    <t>Red wine</t>
-  </si>
-  <si>
-    <t>Ribeye steaks, 10–12 oz</t>
-  </si>
-  <si>
-    <t>Ricotta cheese</t>
-  </si>
-  <si>
-    <t>Saffron threads</t>
+    <t>mayonnaise</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>miso paste</t>
+  </si>
+  <si>
+    <t>mixed mushroom</t>
+  </si>
+  <si>
+    <t>monkfish fillet</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>mushrooms, finely chopped</t>
+  </si>
+  <si>
+    <t>mushrooms, large</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>nutmeg</t>
+  </si>
+  <si>
+    <t>okra</t>
+  </si>
+  <si>
+    <t>olive oil</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>Occurrences: 29</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>Occurrences: 6</t>
+  </si>
+  <si>
+    <t>orzo pasta</t>
+  </si>
+  <si>
+    <t>oxtail piece</t>
+  </si>
+  <si>
+    <t>paprika</t>
+  </si>
+  <si>
+    <t>parmesan</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>parmesan cheese</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>parsley</t>
+  </si>
+  <si>
+    <t>parsnip</t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>pearl onion</t>
+  </si>
+  <si>
+    <t>pie dough</t>
+  </si>
+  <si>
+    <t>polenta</t>
+  </si>
+  <si>
+    <t>polenta, cooked &amp; chilled</t>
+  </si>
+  <si>
+    <t>pork belly, cooked &amp; sliced</t>
+  </si>
+  <si>
+    <t>puff pastry sheet</t>
+  </si>
+  <si>
+    <t>red bell pepper</t>
+  </si>
+  <si>
+    <t>red pepper flake</t>
+  </si>
+  <si>
+    <t>red snapper fillet</t>
+  </si>
+  <si>
+    <t>red wine</t>
+  </si>
+  <si>
+    <t>ribeye steaks, 10-12 oz</t>
+  </si>
+  <si>
+    <t>ricotta cheese</t>
+  </si>
+  <si>
+    <t>saffron thread</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>Salmon fillets (6 oz)</t>
-  </si>
-  <si>
-    <t>Scallions, sliced</t>
-  </si>
-  <si>
-    <t>Semolina flour</t>
-  </si>
-  <si>
-    <t>Sesame oil</t>
-  </si>
-  <si>
-    <t>Shallots, minced</t>
-  </si>
-  <si>
-    <t>Shiitake mushrooms, sliced</t>
-  </si>
-  <si>
-    <t>Shrimp, peeled &amp; deveined</t>
-  </si>
-  <si>
-    <t>Smoked Gouda, grated</t>
-  </si>
-  <si>
-    <t>Snow peas</t>
-  </si>
-  <si>
-    <t>Snow peas, trimmed</t>
-  </si>
-  <si>
-    <t>Soy sauce</t>
-  </si>
-  <si>
-    <t>Spinach, blanched</t>
-  </si>
-  <si>
-    <t>Stale bread, cubed</t>
-  </si>
-  <si>
-    <t>Star anise</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>Sundried tomatoes, chopped</t>
-  </si>
-  <si>
-    <t>Sweet potatoes, sliced</t>
-  </si>
-  <si>
-    <t>Thyme, fresh</t>
-  </si>
-  <si>
-    <t>Thyme, optional</t>
-  </si>
-  <si>
-    <t>Truffle oil</t>
-  </si>
-  <si>
-    <t>Turkey scallopine (4–5 oz)</t>
-  </si>
-  <si>
-    <t>Udon noodles, cooked</t>
-  </si>
-  <si>
-    <t>Vanilla extract</t>
-  </si>
-  <si>
-    <t>Veal chops (6 oz)</t>
-  </si>
-  <si>
-    <t>Vegetable stock</t>
-  </si>
-  <si>
-    <t>Venison loin, portion-cut</t>
-  </si>
-  <si>
-    <t>Water or stock</t>
-  </si>
-  <si>
-    <t>White wine</t>
-  </si>
-  <si>
-    <t>Whole milk</t>
-  </si>
-  <si>
-    <t>Wild rice, cooked</t>
-  </si>
-  <si>
-    <t>Yukon Gold potatoes</t>
-  </si>
-  <si>
-    <t>Yukon Gold potatoes, thinly sliced</t>
-  </si>
-  <si>
-    <t>Zucchini, sliced</t>
+    <t>salmon fillet</t>
+  </si>
+  <si>
+    <t>semolina flour</t>
+  </si>
+  <si>
+    <t>sesame oil</t>
+  </si>
+  <si>
+    <t>shallot</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>shiitake mushroom</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>smoked gouda</t>
+  </si>
+  <si>
+    <t>snow pea</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>soy sauce</t>
+  </si>
+  <si>
+    <t>spinach, blanched</t>
+  </si>
+  <si>
+    <t>stale bread, cubed</t>
+  </si>
+  <si>
+    <t>star anise</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>Mixed units: 31 lb, 8 oz</t>
+  </si>
+  <si>
+    <t>sundried tomato</t>
+  </si>
+  <si>
+    <t>sweet potato</t>
+  </si>
+  <si>
+    <t>thyme</t>
+  </si>
+  <si>
+    <t>truffle oil</t>
+  </si>
+  <si>
+    <t>turkey scallopine</t>
+  </si>
+  <si>
+    <t>udon noodles, cooked</t>
+  </si>
+  <si>
+    <t>vanilla extract</t>
+  </si>
+  <si>
+    <t>Mixed units: 12 oz, 0.5 cup</t>
+  </si>
+  <si>
+    <t>veal chop</t>
+  </si>
+  <si>
+    <t>vegetable stock</t>
+  </si>
+  <si>
+    <t>venison loin, portion-cut</t>
+  </si>
+  <si>
+    <t>water or stock</t>
+  </si>
+  <si>
+    <t>white wine</t>
+  </si>
+  <si>
+    <t>whole milk</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>wild rice, cooked</t>
+  </si>
+  <si>
+    <t>yukon gold potato</t>
+  </si>
+  <si>
+    <t>yukon gold potatoes, thinly sliced</t>
+  </si>
+  <si>
+    <t>zucchini</t>
   </si>
 </sst>
 </file>
@@ -933,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -946,7 +1006,7 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,169 +1039,169 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1149,16 +1209,16 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="E12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1166,13 +1226,13 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1181,2271 +1241,2101 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
-      <c r="E48">
-        <v>6</v>
+      <c r="E48" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" t="s">
         <v>93</v>
       </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="E64" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65">
-        <v>8</v>
+        <v>50</v>
+      </c>
+      <c r="E65" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69">
         <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="D80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" t="s">
         <v>18</v>
       </c>
-      <c r="D92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92">
-        <v>5</v>
+      <c r="E92" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E104" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="D111" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="E111" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E115" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E118" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
-      </c>
-      <c r="E119">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="E120" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C121" t="s">
         <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E123" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B126" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="E127" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="E129" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="B130" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D131" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="B132" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="B133" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E133" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C136" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D136" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
-      </c>
-      <c r="E137">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>172</v>
-      </c>
-      <c r="B138" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>173</v>
-      </c>
-      <c r="B139" t="s">
-        <v>6</v>
-      </c>
-      <c r="C139" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s">
-        <v>22</v>
-      </c>
-      <c r="E139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>174</v>
-      </c>
-      <c r="B140" t="s">
-        <v>6</v>
-      </c>
-      <c r="C140" t="s">
-        <v>7</v>
-      </c>
-      <c r="D140" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>175</v>
-      </c>
-      <c r="B141" t="s">
-        <v>6</v>
-      </c>
-      <c r="C141" t="s">
-        <v>50</v>
-      </c>
-      <c r="D141" t="s">
-        <v>22</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>176</v>
-      </c>
-      <c r="B142" t="s">
-        <v>41</v>
-      </c>
-      <c r="C142" t="s">
-        <v>50</v>
-      </c>
-      <c r="D142" t="s">
-        <v>16</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>177</v>
-      </c>
-      <c r="B143" t="s">
-        <v>14</v>
-      </c>
-      <c r="C143" t="s">
-        <v>24</v>
-      </c>
-      <c r="D143" t="s">
-        <v>22</v>
-      </c>
-      <c r="E143">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>178</v>
-      </c>
-      <c r="B144" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144" t="s">
-        <v>24</v>
-      </c>
-      <c r="D144" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>179</v>
-      </c>
-      <c r="B145" t="s">
-        <v>36</v>
-      </c>
-      <c r="C145" t="s">
-        <v>50</v>
-      </c>
-      <c r="D145" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>180</v>
-      </c>
-      <c r="B146" t="s">
-        <v>36</v>
-      </c>
-      <c r="C146" t="s">
-        <v>50</v>
-      </c>
-      <c r="D146" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>181</v>
-      </c>
-      <c r="B147" t="s">
-        <v>36</v>
-      </c>
-      <c r="C147" t="s">
-        <v>34</v>
-      </c>
-      <c r="D147" t="s">
-        <v>12</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
